--- a/dtpu_configurations/only_integer32/100mhz/mxu_7x7/timing.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_7x7/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.8415241837501526</v>
+        <v>0.5948193073272705</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.018999801948666573</v>
+        <v>0.008122502826154232</v>
       </c>
     </row>
   </sheetData>
